--- a/Collection of test cases.xlsx
+++ b/Collection of test cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lehon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\QA_Automation_Challenge_Phuc_Le\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562953B2-8CB4-4A97-A4BA-BCE97A3AEDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26541BA4-7DE8-464E-A165-65D15C4FD56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C70362BA-F476-49C5-B4CF-B98B04AFEDD7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Steps</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>A prompt appears with error "Wrong password"</t>
+  </si>
+  <si>
+    <t>A prompt appears with error "Please fill out Username and Password"</t>
   </si>
   <si>
     <t>Pre-Condition: 
@@ -45,42 +51,6 @@
 Password: 123456
 - Access page https://www.demoblaze.com/
 1. Click "Log in" button to open login modal
-2. Input username "test_demo123" and wrong password "123"
-3. Click Log in</t>
-  </si>
-  <si>
-    <t>A prompt appears with error "Wrong password"</t>
-  </si>
-  <si>
-    <t>Pre-Condition: 
-- 1 valid user was already created: 
-Username: test_demo123
-Password: 123456
-- Access page https://www.demoblaze.com/
-1. Click "Log in" button to open login modal
-2. Input username "test_demo123" and leave password empty
-3. Click Log in</t>
-  </si>
-  <si>
-    <t>A prompt appears with error "Please fill out Username and Password"</t>
-  </si>
-  <si>
-    <t>Pre-Condition: 
-- 1 valid user was already created: 
-Username: test_demo123
-Password: 123456
-- Access page https://www.demoblaze.com/
-1. Click "Log in" button to open login modal
-2. Leave username empty and input password "123456"
-3. Click Log in</t>
-  </si>
-  <si>
-    <t>Pre-Condition: 
-- 1 valid user was already created: 
-Username: test_demo123
-Password: 123456
-- Access page https://www.demoblaze.com/
-1. Click "Log in" button to open login modal
 2. Leave username empty and password empty
 3. Click Log in</t>
   </si>
@@ -88,43 +58,9 @@
     <t>User logs in successfully with text "Welcome test_demo123"</t>
   </si>
   <si>
-    <t>Pre-Condition: 
-- 1 valid user was already created: 
-Username: test_demo123
-Password: 123456
-- Access page https://www.demoblaze.com/
-1. Click "Log in" button to open login modal
-2. Input username "test_demo123" and password "123456"
-3. Click Log in</t>
-  </si>
-  <si>
-    <t>Pre-Condition: 
-- 1 valid user was already created: 
-Username: test_demo123
-Password: 123456
-- Access page https://www.demoblaze.com/
-1. Click "Log in" button to open login modal
-2. Input non-existing username "test_demo123@gmail.com" and input password "123456"
-3. Click Log in</t>
-  </si>
-  <si>
     <t>A prompt appears with error "User does not exist"</t>
   </si>
   <si>
-    <t>At step 3, 4: the login modal is closed</t>
-  </si>
-  <si>
-    <t>Pre-Condition: 
-- 1 valid user was already created: 
-Username: test_demo123
-Password: 123456
-- Access page https://www.demoblaze.com/
-1. Click "Log in" button to open login modal
-2. Input username "test_demo123" and password "123456"
-3. Click Close button
-4. Repeat step 1, 2 but this time, click on X button at the right corner</t>
-  </si>
-  <si>
     <t>Verify user logs in with correct username and password</t>
   </si>
   <si>
@@ -140,9 +76,6 @@
     <t>Verify user logs in with empty username and password</t>
   </si>
   <si>
-    <t>Verify user logs in with empty non-existing username</t>
-  </si>
-  <si>
     <t>Verify user closes the login modal</t>
   </si>
   <si>
@@ -163,39 +96,7 @@
     <t>Verify user goes to Cart after logging in and putting some items in it</t>
   </si>
   <si>
-    <t>Pre-Condition: 
-- 1 valid user was already created: 
-Username: test_demo123
-Password: 123456
-- Access page https://www.demoblaze.com/
-1. User logs in with credentials like above
-2. User clicks "Cart" button to access cart page</t>
-  </si>
-  <si>
-    <t>Pre-Condition: 
-- 1 valid user was already created: 
-Username: test_demo123
-Password: 123456
-- Access page https://www.demoblaze.com/
-1. User logs in with credentials like above
-2. User clicks on 1 product
-3. User clicks "Add to Cart" button
-4. Click "Cart" button to access cart page
-5. Repeat step 2, 3 but select another product</t>
-  </si>
-  <si>
     <t>Verify user can delete item in Cart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pre-Condition: 
-- 1 valid user was already created: 
-Username: test_demo123
-Password: 123456
-- Test case 10 is passed
-1. User logs in with credentials like above
-2. User clicks "Cart" button to access cart page
-3. User clicks "Delete" button
-4. Repeat step 3 </t>
   </si>
   <si>
     <t>At step 3: 1 product is deleted, cart now contains only 1 product
@@ -206,6 +107,157 @@
 At step 5: Cart contains 2 products
 - All products are exactly the same ones that user added
 - Cart contains correct information about product, for example: Nokia lumia 520 with price $820</t>
+  </si>
+  <si>
+    <t>Verify user logs in with non-existing username</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. Click "Log in" button to open login modal
+2. Input username "test_demo123456" and password "admin123456"
+3. Click Log in</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. Click "Log in" button to open login modal
+2. Input username "test_demo123456" and wrong password "123"
+3. Click Log in</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. Click "Log in" button to open login modal
+2. Input username "test_demo123456" and leave password empty
+3. Click Log in</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. Click "Log in" button to open login modal
+2. Leave username empty and input password "admin123456"
+3. Click Log in</t>
+  </si>
+  <si>
+    <t>Verify user logs in with case-sensitive username</t>
+  </si>
+  <si>
+    <t>Verify user logs in with case-sensitive password</t>
+  </si>
+  <si>
+    <t>Verify user logs in with extra spaces characters in username</t>
+  </si>
+  <si>
+    <t>Verify user logs in with extra spaces characters in password</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. Click "Log in" button to open login modal
+2. Input non-existing username "test_demo123@gmail.com" and input password "123456"
+3. Click Log in</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. Click "Log in" button to open login modal
+2. Input non-existing username "Test_Demo123456" and input password "admin123456"
+3. Click Log in</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. Click "Log in" button to open login modal
+2. Input non-existing username "test_demo123456" and input password "Admin123456"
+3. Click Log in</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. Click "Log in" button to open login modal
+2. Input non-existing username "  test_demo123456  " and input password "admin123456"
+3. Click Log in</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. Click "Log in" button to open login modal
+2. Input non-existing username "test_demo123456" and input password "  admin123456  "
+3. Click Log in</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. Click "Log in" button to open login modal
+2. Input username "test_demo123" and password "123456"
+3. Click Close button
+4. Repeat step 1, 2 but this time, click on X button at the right corner</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. User logs in with credentials like above
+2. User clicks "Cart" button to access cart page</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Test case 14 is passed
+1. User logs in with credentials like above
+2. User clicks "Cart" button to access cart page
+3. User clicks "Delete" button
+4. Repeat step 3</t>
+  </si>
+  <si>
+    <t>Pre-Condition: 
+- 1 valid user was already created: 
+Username: test_demo123456
+Password: admin123456
+- Access page https://www.demoblaze.com/
+1. User logs in with credentials like above
+2. User clicks on 1 product, for example: "Apple"
+3. User clicks "Add to Cart" button
+4. Click "Cart" button to access cart page
+5. Repeat step 2, 3 but select another product, for example: "Nokia"</t>
+  </si>
+  <si>
+    <t>At step 3, 4: the login modal is closed without logging in</t>
   </si>
 </sst>
 </file>
@@ -584,18 +636,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F14F58D-CB13-45BF-87FB-ED7B8BF9254C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="66.28515625" customWidth="1"/>
+    <col min="3" max="3" width="69.28515625" customWidth="1"/>
     <col min="4" max="4" width="64.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -618,13 +670,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
@@ -632,13 +684,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
@@ -646,13 +698,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
@@ -660,13 +712,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
@@ -674,13 +726,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
@@ -688,13 +740,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
@@ -702,55 +754,55 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
@@ -758,13 +810,69 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Collection of test cases.xlsx
+++ b/Collection of test cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\QA_Automation_Challenge_Phuc_Le\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26541BA4-7DE8-464E-A165-65D15C4FD56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A7951B-E00E-481C-9C42-EB847F9380C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C70362BA-F476-49C5-B4CF-B98B04AFEDD7}"/>
   </bookViews>
@@ -639,8 +639,8 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
